--- a/data/us-home-prices-change.xlsx
+++ b/data/us-home-prices-change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB8BA6-0B01-4083-9479-680B0A23E65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27B6310-0B48-4E96-9FA9-D75C9FD2344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Dec 1, 1899</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Dec 1, 1891</t>
-  </si>
-  <si>
-    <t>Dec 1, 1890</t>
   </si>
   <si>
     <t>Date</t>
@@ -433,10 +430,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1512,9 +1509,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A136" s="2"/>
       <c r="B136" s="4"/>
     </row>
   </sheetData>
